--- a/Forms/ნაწილების სია(AutoRecovered).xlsx
+++ b/Forms/ნაწილების სია(AutoRecovered).xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\alex\senjorpraeqt\Senior_Project_BB-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\alex\senjorpraeqt\Senior_Project_BB-8\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57560B9-A432-43A0-B2D3-BCF1443EF6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA73C70E-89B3-4624-B5A8-7936638BB47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="1245" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="2085" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Column6</t>
   </si>
@@ -119,6 +118,30 @@
   </si>
   <si>
     <t>lidar for slam</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=679442501429&amp;ns=1&amp;pisk=gvDn3Q2VtXPCalgAJVyBGY8VMNRT9Mw7O4B8y8Uy_Pz1p7zJO4VoyVNrpJnKSzuxruHKeYc1EmiSpHwJAJiQF88vkKLxADwWTo6D2v2a7knNUz5e6R8db8v9kKpxABrQec8xpMFiJorAU8PUaPoa5uqz46uz_Or779rPLkWwjuaaUkrU4N7amuXPT8uP_NrL0TrzY8yabuq3UzuzUhmZw9IURSFZQFchuddYkLiaxW4qYyu-rA5Y96iTSN_iIfVTuKUGUTkgYctimlBDwrlbJSUS7dB3EcroSShHo90o4mGzsYbevqoos4wKQ35UuX3LwvFG86r0KyVqLWShLDNrsA2KLU1jXc4UiRh91eF8K2cblWR654mgJ4k3_wYTyjntL502WO07ZbkLQv8wngkR_s8-GTZw2A55NWr_jrCChWtjFybP7hxGg_NUfkoyjhf5NWr_jrKMjsqQTlZE4&amp;priceTId=2100c82817362539548104248e0c39&amp;skuId=5048598671048&amp;spm=a21n57.1.hoverItem.5&amp;utparam=%7B%22aplus_abtest%22%3A%2241fe1b83c92c9980524f17203f953f79%22%7D&amp;xxc=ad_ztc</t>
+  </si>
+  <si>
+    <t>WT9011G4K</t>
+  </si>
+  <si>
+    <t>accel + gyro</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=729656168752&amp;ns=1&amp;pisk=gaZs3VML8CA1PbA3I1BENiek6OnXCSsy1KMYE-KwHcntMywuGfWcSczIGWFI6hWGSqhbsc307jlZGmw0N95P4gygImmRa_SyV4kVV0YtMqdq9DHicAI1YwWTImmAGp-AzgwgwJ6brhHxp9Mq3hHYMV3KvxcKHFnYMX3KeYTtDmFAdDHrUCdtHVHpvxcp6xLtHHLK3YRv6A3AdJhnHmhxwlKIKHcUCOsYDOjVsNrmOnKYAvBiZR1W4AZZCVG8BltMjtDs5bet9_k3DfuLnqZDnngzBzVme5dOGjqQplU8w68Z6zMbUrN52nD3W5ZKlkWcVJmsh4nxRKKYdDhxPkoR2BM3JRzYj59XDAqa4qGoRtKmuDEryzF6nT2KXxFmro5kjfeYEu4rVGOoCyeSAg864biutE9IrnMIa96BoE2EigZ2aKHEOVHnLbWCdUWsWvDIa96BoE0tKvvFd9TPC&amp;priceTId=2100c82817362539548104248e0c39&amp;skuId=5850259790019&amp;spm=a21n57.1.item.2.3246523cmKNB97&amp;utparam=%7B%22aplus_abtest%22%3A%221e257a69be7e243f789447d3b782eaa9%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>MPU6050</t>
+  </si>
+  <si>
+    <t>GY-87 10DOF MPU6050 HMC5883L BMP180</t>
+  </si>
+  <si>
+    <t>accel</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=764789305038&amp;ns=1&amp;pisk=g5Sq3h2sToE4S4s4sLxZY5qHdWxvNnVQ0GO6IOXMhIADGOvMb_f_HI6gM1SwZOQbHFNxQxIPTcibMrBibhtgOWZQAtpvXhVITedEWjpedxq6ocmkDdTYN8G7AtBv6xlgdaqI_GAgvj0Ms1xkrdvwjKADju2yQpRMjIYiZ0vBZCxGsEmorpvKSKAMnT2yKpiiic0DZTvBImcGsh2PEQpiwnSGArp9oRvmapZzCzQWttArjDlJeEcFQVioqgJDuGfeaL954K82TUwn44scNOjfDUUxlhB5817Gt7gXiwJFae_4Tm5FMdfkEswsWL7NIMKvkAi1Tn5w-iYrIDWHmQKyEM2sJQsyG1j2rJie53jB-nb7yST60p5GDskZj6X5diLRbWlk6Z9pqdSTKVRwSgJr6LqdVGQqsV8DeLRQU8Sqe5bAOdfgGV39kLpyO-cSWVLDeLRQU8utWEGpUBwmN&amp;priceTId=2100c80817362542227243176e0960&amp;skuId=5433658427577&amp;spm=a21n57.1.item.51.3246523cmKNB97&amp;utparam=%7B%22aplus_abtest%22%3A%2225ea0f96550d55c38f3daae8b6dd9529%22%7D&amp;xxc=taobaoSearch</t>
   </si>
 </sst>
 </file>
@@ -466,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:L10"/>
+  <dimension ref="C3:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,6 +630,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Forms/ნაწილების სია(AutoRecovered).xlsx
+++ b/Forms/ნაწილების სია(AutoRecovered).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\alex\senjorpraeqt\Senior_Project_BB-8\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x1_user\Desktop\Semester 7\Senior_Project_BB-8\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA73C70E-89B3-4624-B5A8-7936638BB47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2085" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="2090" windowWidth="15380" windowHeight="7880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>Column6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Column7</t>
   </si>
@@ -51,9 +47,6 @@
     <t>რაოდენობა</t>
   </si>
   <si>
-    <t>ფასი</t>
-  </si>
-  <si>
     <t>esp-32</t>
   </si>
   <si>
@@ -142,13 +135,94 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=764789305038&amp;ns=1&amp;pisk=g5Sq3h2sToE4S4s4sLxZY5qHdWxvNnVQ0GO6IOXMhIADGOvMb_f_HI6gM1SwZOQbHFNxQxIPTcibMrBibhtgOWZQAtpvXhVITedEWjpedxq6ocmkDdTYN8G7AtBv6xlgdaqI_GAgvj0Ms1xkrdvwjKADju2yQpRMjIYiZ0vBZCxGsEmorpvKSKAMnT2yKpiiic0DZTvBImcGsh2PEQpiwnSGArp9oRvmapZzCzQWttArjDlJeEcFQVioqgJDuGfeaL954K82TUwn44scNOjfDUUxlhB5817Gt7gXiwJFae_4Tm5FMdfkEswsWL7NIMKvkAi1Tn5w-iYrIDWHmQKyEM2sJQsyG1j2rJie53jB-nb7yST60p5GDskZj6X5diLRbWlk6Z9pqdSTKVRwSgJr6LqdVGQqsV8DeLRQU8Sqe5bAOdfgGV39kLpyO-cSWVLDeLRQU8utWEGpUBwmN&amp;priceTId=2100c80817362542227243176e0960&amp;skuId=5433658427577&amp;spm=a21n57.1.item.51.3246523cmKNB97&amp;utparam=%7B%22aplus_abtest%22%3A%2225ea0f96550d55c38f3daae8b6dd9529%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>ceramic capacitors</t>
+  </si>
+  <si>
+    <t>常用独石电容器直插50V无极陶瓷电容10 102 104 105 106混装套件-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>მეოთხე (4)  - 10 ნაირი, თითო 30 ცალი</t>
+  </si>
+  <si>
+    <t>ressistors</t>
+  </si>
+  <si>
+    <t>盒装1/4W金属膜电阻器 直插五色环电阻包 精度1% 30种600个元件包-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>ფასი (უანი)</t>
+  </si>
+  <si>
+    <t>盒装1/4w金属膜电阻包 精度1% 30种常用直插五色环电阻包 共600只-淘宝网</t>
+  </si>
+  <si>
+    <t>electrolytic capacitors</t>
+  </si>
+  <si>
+    <t>包邮 15种规格200个铝电解电容器分类盒套件 范围0.1uF - 220uF-淘宝网</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>200个3mm发光二极管灯珠LED灯珠直插5种色白/红/黄/绿/蓝混装盒装-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>彩色电路板飞线 单芯镀锡铜线 航空线 八色OK线 跳线 8色电子导线-淘宝网</t>
+  </si>
+  <si>
+    <t>breadboard tin wires</t>
+  </si>
+  <si>
+    <t>盒装14种长度140根优质跳线面包板线面包板专用线面包板跳线560根-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>DIY电线美标1007电子线镀锡铜16AWG-30AWG 五色5卷彩盒装电路配线-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>thick copper cables</t>
+  </si>
+  <si>
+    <t>think copper cables</t>
+  </si>
+  <si>
+    <t>26 AWG 5 rolls 20m - red, black, yellow, blue, green</t>
+  </si>
+  <si>
+    <t>(工厂直销)微型导电滑环帽式信号集电环无人机手持云台稳拍器锚鱼-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>HM012-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slip ring with 8 cores </t>
+  </si>
+  <si>
+    <t>4 cores - (2)</t>
+  </si>
+  <si>
+    <t>HM007-04</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=16&amp;id=696738835325&amp;ns=1&amp;priceTId=2100c81917362611679056275e0c0f&amp;skuId=5113669519438&amp;spm=a21n57.1.item.10.3ab2523cgB5l4r&amp;utparam=%7B%22aplus_abtest%22%3A%22823e5f90a423abd75b708fb7a287d995%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>牛眼轮滚珠万向球CY-15-25A加厚钢球尼龙球不锈钢一寸牛眼轴承-淘宝网</t>
+  </si>
+  <si>
+    <t>ball transfer unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +233,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF11192D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,17 +263,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -208,19 +293,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9721D4D-F39B-4758-AC29-175E2C175F17}" name="Table1" displayName="Table1" ref="C3:L36" totalsRowShown="0">
-  <autoFilter ref="C3:L36" xr:uid="{51834E56-920C-49D8-B3CF-EEC68D9F15FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:L36" totalsRowShown="0">
+  <autoFilter ref="C3:L36"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{04473FB6-833B-4D4D-A363-2BBD9D03AFC3}" name="დასახელება"/>
-    <tableColumn id="2" xr3:uid="{47E0DB59-5840-49B2-A5C1-31B11AAA2E3A}" name="აღწერა"/>
-    <tableColumn id="3" xr3:uid="{76447349-697D-4147-96DA-A3A237211631}" name="ლინკი"/>
-    <tableColumn id="4" xr3:uid="{8A079DA6-02FA-46F0-91E0-1C0924D54E95}" name="რაოდენობა"/>
-    <tableColumn id="5" xr3:uid="{A4519058-19A1-40F4-AB2E-8EA85815968D}" name="ფასი"/>
-    <tableColumn id="6" xr3:uid="{1DA6A1E4-CD17-416C-94F0-D25D422E7E77}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{55C84997-E99E-4B6B-A66A-347F915B464B}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{FA68113E-DE2E-4CBE-945C-05EDD7A52CA3}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{7583B644-4517-4E1F-BC01-9AB0AC6E115A}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{9B257CD0-4D92-4CB9-B82F-78E66262CA40}" name="Column10"/>
+    <tableColumn id="1" name="დასახელება"/>
+    <tableColumn id="2" name="აღწერა"/>
+    <tableColumn id="3" name="ლინკი"/>
+    <tableColumn id="4" name="რაოდენობა"/>
+    <tableColumn id="5" name="ფასი (უანი)"/>
+    <tableColumn id="6" name="Column1"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,195 +573,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="11" width="11" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" customWidth="1"/>
+    <col min="4" max="4" width="38.90625" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=683034367107&amp;ns=1&amp;priceTId=2100c88b17362582914603827e0b9b&amp;skuId=5059393567466&amp;spm=a21n57.1.hoverItem.18&amp;utparam=%7B%22aplus_abtest%22%3A%22dbef30766743e9bdc0908690cab7e10d%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://detail.tmall.com/item.htm?abbucket=19&amp;id=683328413168&amp;rn=896644150738fdb84b70fe3ad1f2f6a8&amp;spm=a312a.7700824.w4011-24536307509.23.492f4fcbUPCvnq"/>
+    <hyperlink ref="E18" r:id="rId3" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=692606109403&amp;ns=1&amp;priceTId=2100c82617362588475892273e0bdb&amp;skuId=4920392277588&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%2235eaa792299d844b1d713e490844695b%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E19" r:id="rId4" display="https://item.taobao.com/item.htm?id=590356028467&amp;spm=a312a.7700824.w4002-17890096034.10.34ae360073nLf5"/>
+    <hyperlink ref="E20" r:id="rId5" display="https://detail.tmall.com/item.htm?abbucket=19&amp;id=688719980119&amp;rn=eade812c00e43e1a6fe078681dafec5f&amp;spm=a312a.7700824.w4011-24536280695.17.747d1d6cCstSrI"/>
+    <hyperlink ref="E21" r:id="rId6" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=561340834902&amp;ns=1&amp;priceTId=2100c82017362598290412075e0c3a&amp;spm=a21n57.1.hoverItem.10&amp;utparam=%7B%22aplus_abtest%22%3A%2237473e2815a2142aca576aafb856b6de%22%7D&amp;xxc=taobaoSearch&amp;skuId=3681678599166"/>
+    <hyperlink ref="E22" r:id="rId7" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=669570807944&amp;ns=1&amp;priceTId=2100c82017362601420764632e0c3a&amp;skuId=4816986937763&amp;spm=a21n57.1.hoverItem.8&amp;utparam=%7B%22aplus_abtest%22%3A%22e0d86be345cedc12a9bf1d1670ffddf5%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E23" r:id="rId8" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=748642438763&amp;ns=1&amp;priceTId=2100c82017362603051832136e0c3a&amp;skuId=5330660182434&amp;spm=a21n57.1.hoverItem.15&amp;utparam=%7B%22aplus_abtest%22%3A%2215d36f0d173efbdc83a936c085f0c4b4%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E25" r:id="rId9" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=696738835325&amp;ns=1&amp;priceTId=2100c81917362611679056275e0c0f&amp;skuId=5218038054222&amp;spm=a21n57.1.item.10.3ab2523cgB5l4r&amp;utparam=%7B%22aplus_abtest%22%3A%22823e5f90a423abd75b708fb7a287d995%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E24" r:id="rId10"/>
+    <hyperlink ref="E26" r:id="rId11" display="https://item.taobao.com/item.htm?from=cart&amp;id=632591281487&amp;skuId=4985800979644&amp;spm=a1z0d.6639537%2F202410.item.d632591281487.3d387182fv6OId"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Forms/ნაწილების სია(AutoRecovered).xlsx
+++ b/Forms/ნაწილების სია(AutoRecovered).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>Column7</t>
   </si>
@@ -131,9 +131,6 @@
     <t>GY-87 10DOF MPU6050 HMC5883L BMP180</t>
   </si>
   <si>
-    <t>accel</t>
-  </si>
-  <si>
     <t>https://detail.tmall.com/item.htm?abbucket=8&amp;id=764789305038&amp;ns=1&amp;pisk=g5Sq3h2sToE4S4s4sLxZY5qHdWxvNnVQ0GO6IOXMhIADGOvMb_f_HI6gM1SwZOQbHFNxQxIPTcibMrBibhtgOWZQAtpvXhVITedEWjpedxq6ocmkDdTYN8G7AtBv6xlgdaqI_GAgvj0Ms1xkrdvwjKADju2yQpRMjIYiZ0vBZCxGsEmorpvKSKAMnT2yKpiiic0DZTvBImcGsh2PEQpiwnSGArp9oRvmapZzCzQWttArjDlJeEcFQVioqgJDuGfeaL954K82TUwn44scNOjfDUUxlhB5817Gt7gXiwJFae_4Tm5FMdfkEswsWL7NIMKvkAi1Tn5w-iYrIDWHmQKyEM2sJQsyG1j2rJie53jB-nb7yST60p5GDskZj6X5diLRbWlk6Z9pqdSTKVRwSgJr6LqdVGQqsV8DeLRQU8Sqe5bAOdfgGV39kLpyO-cSWVLDeLRQU8utWEGpUBwmN&amp;priceTId=2100c80817362542227243176e0960&amp;skuId=5433658427577&amp;spm=a21n57.1.item.51.3246523cmKNB97&amp;utparam=%7B%22aplus_abtest%22%3A%2225ea0f96550d55c38f3daae8b6dd9529%22%7D&amp;xxc=taobaoSearch</t>
   </si>
   <si>
@@ -212,17 +209,113 @@
     <t>https://detail.tmall.com/item.htm?abbucket=16&amp;id=696738835325&amp;ns=1&amp;priceTId=2100c81917362611679056275e0c0f&amp;skuId=5113669519438&amp;spm=a21n57.1.item.10.3ab2523cgB5l4r&amp;utparam=%7B%22aplus_abtest%22%3A%22823e5f90a423abd75b708fb7a287d995%22%7D&amp;xxc=taobaoSearch</t>
   </si>
   <si>
-    <t>牛眼轮滚珠万向球CY-15-25A加厚钢球尼龙球不锈钢一寸牛眼轴承-淘宝网</t>
-  </si>
-  <si>
-    <t>ball transfer unit</t>
+    <t>万向球</t>
+  </si>
+  <si>
+    <t>nylon ball transfer unit - small</t>
+  </si>
+  <si>
+    <t>nylon ball transfer unit - big</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=16&amp;id=630210834947&amp;ns=1&amp;priceTId=2100c88a17362624609585429e0bfe&amp;skuId=4654871831205&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22b5b815f054ecf4741c242ea71c7f22a3%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=16&amp;id=630210834947&amp;ns=1&amp;priceTId=2100c88a17362624609585429e0bfe&amp;skuId=4654871831204&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22b5b815f054ecf4741c242ea71c7f22a3%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>KY-040</t>
+  </si>
+  <si>
+    <t>rotaty encoder</t>
+  </si>
+  <si>
+    <t>360度 旋转编码器模块 KY-040 FOR 模块-淘宝网</t>
+  </si>
+  <si>
+    <t>rotaty encoder with knob</t>
+  </si>
+  <si>
+    <t>EC11</t>
+  </si>
+  <si>
+    <t>数字旋转编码器模块 转动电位器 360度旋转电位器数字脉冲输出-淘宝网</t>
+  </si>
+  <si>
+    <t>small magnet - 1</t>
+  </si>
+  <si>
+    <t>10mm * 10mm</t>
+  </si>
+  <si>
+    <t>Zave圆形磁铁强磁吸铁器强力高强度钕磁钢小磁石贴片吸铁石小磁铁-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>small magnet - 2</t>
+  </si>
+  <si>
+    <t>10mm * 3mm</t>
+  </si>
+  <si>
+    <t>small magnet - 3</t>
+  </si>
+  <si>
+    <t>6mm * 3mm</t>
+  </si>
+  <si>
+    <t>直销万向球CY-12A15A19A25A30A38A输送球牛眼轮滚珠尼龙牛眼轴承-淘宝网</t>
+  </si>
+  <si>
+    <t>stainless steel transfer unit - big</t>
+  </si>
+  <si>
+    <t>SG90</t>
+  </si>
+  <si>
+    <t>micro servo</t>
+  </si>
+  <si>
+    <t>25mm*.dsad</t>
+  </si>
+  <si>
+    <t>新型舵机实验 MG995 996R直升机QC模块遥控飞机马达SG90 MG90s 9g-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>MG995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360 servo </t>
+  </si>
+  <si>
+    <t>heat shrink tubes</t>
+  </si>
+  <si>
+    <t>热缩管绝缘套管软热缩套管电线保护套接线套数据线充电线修复收缩-tmall.com天猫</t>
+  </si>
+  <si>
+    <t>550 775 795 799 895 小型直流高速电机12 24V 纯铜马达轴承电机-淘宝网</t>
+  </si>
+  <si>
+    <t>DC servos</t>
+  </si>
+  <si>
+    <t>for main movement</t>
+  </si>
+  <si>
+    <t>KCD4船型开关 船形开关 翘板电源按钮 4脚带灯 16A 250V 31x25mm-淘宝网</t>
+  </si>
+  <si>
+    <t>Power switch 1</t>
+  </si>
+  <si>
+    <t>Power switch 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +326,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF11192D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,21 +366,58 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -293,16 +431,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:L36" totalsRowShown="0">
-  <autoFilter ref="C3:L36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:L46" totalsRowCount="1">
+  <autoFilter ref="C3:L45"/>
   <tableColumns count="10">
     <tableColumn id="1" name="დასახელება"/>
     <tableColumn id="2" name="აღწერა"/>
-    <tableColumn id="3" name="ლინკი"/>
-    <tableColumn id="4" name="რაოდენობა"/>
+    <tableColumn id="3" name="ლინკი" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="რაოდენობა" totalsRowDxfId="0"/>
     <tableColumn id="5" name="ფასი (უანი)"/>
     <tableColumn id="6" name="Column1"/>
-    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="7" name="Column7" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(G4:G50)</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="8" name="Column8"/>
     <tableColumn id="9" name="Column9"/>
     <tableColumn id="10" name="Column10"/>
@@ -574,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L26"/>
+  <dimension ref="C3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,10 +745,10 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
@@ -737,7 +877,7 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -754,7 +894,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -762,13 +902,13 @@
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -779,10 +919,10 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -793,10 +933,10 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -807,10 +947,10 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -821,10 +961,10 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -835,10 +975,10 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -849,10 +989,10 @@
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -863,13 +1003,13 @@
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -880,13 +1020,13 @@
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -897,13 +1037,13 @@
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -914,16 +1054,236 @@
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>15</v>
+      <c r="E27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="I46">
+        <f>SUM(G4:G50)</f>
+        <v>420.6</v>
       </c>
     </row>
   </sheetData>
@@ -938,12 +1298,25 @@
     <hyperlink ref="E23" r:id="rId8" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=748642438763&amp;ns=1&amp;priceTId=2100c82017362603051832136e0c3a&amp;skuId=5330660182434&amp;spm=a21n57.1.hoverItem.15&amp;utparam=%7B%22aplus_abtest%22%3A%2215d36f0d173efbdc83a936c085f0c4b4%22%7D&amp;xxc=taobaoSearch"/>
     <hyperlink ref="E25" r:id="rId9" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=696738835325&amp;ns=1&amp;priceTId=2100c81917362611679056275e0c0f&amp;skuId=5218038054222&amp;spm=a21n57.1.item.10.3ab2523cgB5l4r&amp;utparam=%7B%22aplus_abtest%22%3A%22823e5f90a423abd75b708fb7a287d995%22%7D&amp;xxc=taobaoSearch"/>
     <hyperlink ref="E24" r:id="rId10"/>
-    <hyperlink ref="E26" r:id="rId11" display="https://item.taobao.com/item.htm?from=cart&amp;id=632591281487&amp;skuId=4985800979644&amp;spm=a1z0d.6639537%2F202410.item.d632591281487.3d387182fv6OId"/>
+    <hyperlink ref="E27" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=41879497637&amp;ns=1&amp;priceTId=2100c80217362694933695281e0c8c&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%226fba754efc7b534c39553219de8fe471%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E29" r:id="rId13" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=576520367466&amp;ns=1&amp;priceTId=2100c88d17362700279437304e0bca&amp;skuId=5233776163079&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%2286e639aba6b85e59df25477f2e06e9be%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E30" r:id="rId14" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=619016855032&amp;ns=1&amp;priceTId=2100c88b17362707183884543e0b95&amp;skuId=5291258526890&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222eda20c95f4e353d9cf3368d4b69c3af%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E31" r:id="rId15" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=619016855032&amp;ns=1&amp;priceTId=2100c88b17362707183884543e0b95&amp;skuId=4914622432769&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222eda20c95f4e353d9cf3368d4b69c3af%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E32" r:id="rId16" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=619016855032&amp;ns=1&amp;priceTId=2100c88b17362707183884543e0b95&amp;skuId=4539994351575&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222eda20c95f4e353d9cf3368d4b69c3af%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E26" r:id="rId17"/>
+    <hyperlink ref="E33" r:id="rId18" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=630210834947&amp;ns=1&amp;priceTId=2100c88a17362624609585429e0bfe&amp;skuId=4654871831212&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22b5b815f054ecf4741c242ea71c7f22a3%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E35" r:id="rId19" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=615181368748&amp;ns=1&amp;priceTId=2100c82017362728155711077e0c51&amp;skuId=5194292062250&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22a3468a5e5a8f7fdc026354baba12ceef%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E34" r:id="rId20" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=615181368748&amp;ns=1&amp;priceTId=2100c82017362728155711077e0c51&amp;skuId=4886121141707&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22a3468a5e5a8f7fdc026354baba12ceef%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E36" r:id="rId21" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=735286048821&amp;ns=1&amp;priceTId=2100c82b17362732531396453e0c13&amp;skuId=5085655129152&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22acd203ffa8b2e0c2a49927114cbdfa6a%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E37" r:id="rId22" display="https://item.taobao.com/item.htm?abbucket=14&amp;id=737526254222&amp;ns=1&amp;pisk=gFWx38V_zz40GT93n-NkjLuVRkqo_OI4oZSIIFYm1aQRfUDg0KVwBNLR7EADhED9BGQNSNIa0hT15NLGi72h0iJwCyvTKJj2PpEf-ZLXf8Z6XH-bqIgAcKoXCy43BbmWgrv1oSbgY4GWYUtXfETb2LtHxf961ns72htiljtf5gZJzhu6fjOXPLt9fA9shEgSFhKHfjT61QOWzh965N9sa7U9PmTiB6pS6gLnSr3IRTKvMFhDJABP2vvkR_8SCyZWmIhccUHsCT1z-98plWok7KYVcnQaLxJX66SMXZexhNIFUaK5RRHHlgShtIWbLfRphEdNhpn_hgpvkB6AzmMARgI1tQBuAJJvhE1M3GmLogBAoiWRjcGWHKfJ9tpQLqTGZMB9XOzaewIFUaK5RRUf4l6hpSVE-eKiGuE-_fRX4s-DpNEbyZ2M2eqYBflwau-J-uE-_fRX43L3DlhZ_QrP.&amp;priceTId=2100c80417362730561112403e09b4&amp;skuId=5261470858494&amp;spm=a21n57.1.item.185.1f21523cDgaLDu&amp;utparam=%7B%22aplus_abtest%22%3A%2212fe17e425dd4975dbcbcf99188db39d%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E38" r:id="rId23" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=565902254473&amp;ns=1&amp;priceTId=2100c81e17362740448754078e0be9&amp;skuId=5150026346779&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22459bf603a49a8d0eb8c2b4830478dfb2%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E39" r:id="rId24" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=565902254473&amp;ns=1&amp;priceTId=2100c81e17362740448754078e0be9&amp;skuId=5150026346779&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22459bf603a49a8d0eb8c2b4830478dfb2%22%7D&amp;xxc=taobaoSearch"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Forms/ნაწილების სია(AutoRecovered).xlsx
+++ b/Forms/ნაწილების სია(AutoRecovered).xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x1_user\Desktop\Semester 7\Senior_Project_BB-8\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\alex\senjorpraeqt\Senior_Project_BB-8\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C472C8-393E-481B-B1CB-46664BD427C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2090" windowWidth="15380" windowHeight="7880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -56,12 +62,6 @@
     <t>ლინკი</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=718248966902&amp;ns=1&amp;pisk=grYs3V1pYR213nwHsAhFFRIjOY7XBKgzCS1vZIUaMNQOHHOkhOlmjN-ChppCBPlijiBXINIDbtWNhZODFXkrz4RMsZb-UYurt146ja4YH1eVvkCGl13s8Dl9sZbxUWzx44OMeCDLePCA9X1VgsF9HGId9_BdMlQvH9Idw_ZOkZpxOwCPZ-eOkOed9_BLB1UAD6Fd__rY6ZIxOBBhMZBxZOUCtyXe1fNifKiL-oAVdrUvR6hGeCN0W_YG1G6y6Ft6bealfTdOdrMu2_QNh9Y-LDOH3hpNtKgSdaKkdEsRlVwl1Hd5JO7-WyQwSCKRDUH0DCbGCwL9VSUvON6dAFsgCv6JSBLlJMu-NBLHQCYBgS3ATLWpsFQjybb1WOQCtEk3WttpDFSGoRHfneOpWnsP5zW5rpqbOg4fOTlIOoqDTt0Wu8PAT9sOt6WrOXZr1GChOTlIOoqcX6f3TXGQ4f1..&amp;priceTId=2100c82817361631819297116e0c2a&amp;skuId=5784909291778&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2275968ac32e3476178af2c48a77b4314b%22%7D&amp;xxc=taobaoSearch</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?priceTId=2100c82817361634529695108e0c2a&amp;utparam=%7B%22aplus_abtest%22%3A%224c590c0dc6267d2e2e13f78bda922823%22%7D&amp;id=688878446695&amp;ns=1&amp;abbucket=8&amp;xxc=taobaoSearch&amp;skuId=4903395208781&amp;spm=a21n57.1.hoverItem.2&amp;pisk=g0ps3OspTP46hZUHjVnFPPEbjgXX1EMz5osvqneaDOBOkBtklNomsORCleLCWRoissQXSOCD_Z7NlttDPDurUY-MjtX-z4kPlzokbT2YMiUVJ9IPhGHsLXo9jtXxzkyxaYtMyh08PRIAvDsV0iE9k1Cpvi7dDZevkwCd2gNOHtLxA6IADGIYHsed9ibLMreYHyEdqgFYM5ItAHQh4tQxNB2CxJbefcZiiL6IvD-1R-evdMnGyh9PxM9Cw1QR9_wvYps11aK6ICOJTMped_5U0V6pqB8OATM_rGOpVOIXn0Ffls9GdiLsEu_pCn9CsBrzeH1f5BpOOoevXtQOgITs55b9_e1lv6EjEM8PJhv9Om4pXU71BMCEe0tdMBJGZduLCTdkbORvy2PNWQsA4PwPPTY3Gk1uhM_rADN0iH7mFKzzDM7C6MjFzDiQac1OxM_rADN0i1IhxkoIA7o1.</t>
-  </si>
-  <si>
     <t>raspberry pi 5</t>
   </si>
   <si>
@@ -309,12 +309,18 @@
   </si>
   <si>
     <t>Power switch 2</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=718248966902&amp;ns=1&amp;pisk=grYs3V1pYR213nwHsAhFFRIjOY7XBKgzCS1vZIUaMNQOHHOkhOlmjN-ChppCBPlijiBXINIDbtWNhZODFXkrz4RMsZb-UYurt146ja4YH1eVvkCGl13s8Dl9sZbxUWzx44OMeCDLePCA9X1VgsF9HGId9_BdMlQvH9Idw_ZOkZpxOwCPZ-eOkOed9_BLB1UAD6Fd__rY6ZIxOBBhMZBxZOUCtyXe1fNifKiL-oAVdrUvR6hGeCN0W_YG1G6y6Ft6bealfTdOdrMu2_QNh9Y-LDOH3hpNtKgSdaKkdEsRlVwl1Hd5JO7-WyQwSCKRDUH0DCbGCwL9VSUvON6dAFsgCv6JSBLlJMu-NBLHQCYBgS3ATLWpsFQjybb1WOQCtEk3WttpDFSGoRHfneOpWnsP5zW5rpqbOg4fOTlIOoqDTt0Wu8PAT9sOt6WrOXZr1GChOTlIOoqcX6f3TXGQ4f1..&amp;priceTId=2100c82817361631819297116e0c2a&amp;skuId=5091675840468&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2275968ac32e3476178af2c48a77b4314b%22%7D&amp;xxc=taobaoSearch</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=8&amp;id=688878446695&amp;ns=1&amp;pisk=g0ps3OspTP46hZUHjVnFPPEbjgXX1EMz5osvqneaDOBOkBtklNomsORCleLCWRoissQXSOCD_Z7NlttDPDurUY-MjtX-z4kPlzokbT2YMiUVJ9IPhGHsLXo9jtXxzkyxaYtMyh08PRIAvDsV0iE9k1Cpvi7dDZevkwCd2gNOHtLxA6IADGIYHsed9ibLMreYHyEdqgFYM5ItAHQh4tQxNB2CxJbefcZiiL6IvD-1R-evdMnGyh9PxM9Cw1QR9_wvYps11aK6ICOJTMped_5U0V6pqB8OATM_rGOpVOIXn0Ffls9GdiLsEu_pCn9CsBrzeH1f5BpOOoevXtQOgITs55b9_e1lv6EjEM8PJhv9Om4pXU71BMCEe0tdMBJGZduLCTdkbORvy2PNWQsA4PwPPTY3Gk1uhM_rADN0iH7mFKzzDM7C6MjFzDiQac1OxM_rADN0i1IhxkoIA7o1.&amp;priceTId=2100c82817361634529695108e0c2a&amp;skuId=5200542781102&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%224c590c0dc6267d2e2e13f78bda922823%22%7D&amp;xxc=taobaoSearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,6 +403,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -414,6 +421,7 @@
         <sz val="11"/>
         <color theme="10"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -431,21 +439,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:L46" totalsRowCount="1">
-  <autoFilter ref="C3:L45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C3:L46" totalsRowCount="1">
+  <autoFilter ref="C3:L45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="დასახელება"/>
-    <tableColumn id="2" name="აღწერა"/>
-    <tableColumn id="3" name="ლინკი" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="რაოდენობა" totalsRowDxfId="0"/>
-    <tableColumn id="5" name="ფასი (უანი)"/>
-    <tableColumn id="6" name="Column1"/>
-    <tableColumn id="7" name="Column7" totalsRowFunction="custom">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="დასახელება"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="აღწერა"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ლინკი" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="რაოდენობა" totalsRowDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ფასი (უანი)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" totalsRowFunction="custom">
       <totalsRowFormula>SUM(G4:G50)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -713,25 +721,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.7265625" customWidth="1"/>
-    <col min="4" max="4" width="38.90625" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -745,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
@@ -763,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -771,144 +779,175 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f>28*6</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f>9.7*2</f>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <f>38*2</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <f>40*0.36</f>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="2" t="s">
+      <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -917,12 +956,12 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -931,12 +970,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -945,12 +984,12 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -959,12 +998,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -973,12 +1012,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -987,12 +1026,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1001,15 +1040,15 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1018,15 +1057,15 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1035,15 +1074,15 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1052,15 +1091,15 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -1069,12 +1108,12 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -1083,15 +1122,15 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -1100,15 +1139,15 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -1117,15 +1156,15 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1134,15 +1173,15 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1151,15 +1190,15 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1168,15 +1207,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1185,15 +1224,15 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -1202,15 +1241,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -1219,12 +1258,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1233,15 +1272,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -1250,12 +1289,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -1264,12 +1303,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -1278,40 +1317,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
       <c r="I46">
         <f>SUM(G4:G50)</f>
-        <v>420.6</v>
+        <v>1593.4599999999998</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=683034367107&amp;ns=1&amp;priceTId=2100c88b17362582914603827e0b9b&amp;skuId=5059393567466&amp;spm=a21n57.1.hoverItem.18&amp;utparam=%7B%22aplus_abtest%22%3A%22dbef30766743e9bdc0908690cab7e10d%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://detail.tmall.com/item.htm?abbucket=19&amp;id=683328413168&amp;rn=896644150738fdb84b70fe3ad1f2f6a8&amp;spm=a312a.7700824.w4011-24536307509.23.492f4fcbUPCvnq"/>
-    <hyperlink ref="E18" r:id="rId3" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=692606109403&amp;ns=1&amp;priceTId=2100c82617362588475892273e0bdb&amp;skuId=4920392277588&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%2235eaa792299d844b1d713e490844695b%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E19" r:id="rId4" display="https://item.taobao.com/item.htm?id=590356028467&amp;spm=a312a.7700824.w4002-17890096034.10.34ae360073nLf5"/>
-    <hyperlink ref="E20" r:id="rId5" display="https://detail.tmall.com/item.htm?abbucket=19&amp;id=688719980119&amp;rn=eade812c00e43e1a6fe078681dafec5f&amp;spm=a312a.7700824.w4011-24536280695.17.747d1d6cCstSrI"/>
-    <hyperlink ref="E21" r:id="rId6" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=561340834902&amp;ns=1&amp;priceTId=2100c82017362598290412075e0c3a&amp;spm=a21n57.1.hoverItem.10&amp;utparam=%7B%22aplus_abtest%22%3A%2237473e2815a2142aca576aafb856b6de%22%7D&amp;xxc=taobaoSearch&amp;skuId=3681678599166"/>
-    <hyperlink ref="E22" r:id="rId7" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=669570807944&amp;ns=1&amp;priceTId=2100c82017362601420764632e0c3a&amp;skuId=4816986937763&amp;spm=a21n57.1.hoverItem.8&amp;utparam=%7B%22aplus_abtest%22%3A%22e0d86be345cedc12a9bf1d1670ffddf5%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E23" r:id="rId8" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=748642438763&amp;ns=1&amp;priceTId=2100c82017362603051832136e0c3a&amp;skuId=5330660182434&amp;spm=a21n57.1.hoverItem.15&amp;utparam=%7B%22aplus_abtest%22%3A%2215d36f0d173efbdc83a936c085f0c4b4%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E25" r:id="rId9" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=696738835325&amp;ns=1&amp;priceTId=2100c81917362611679056275e0c0f&amp;skuId=5218038054222&amp;spm=a21n57.1.item.10.3ab2523cgB5l4r&amp;utparam=%7B%22aplus_abtest%22%3A%22823e5f90a423abd75b708fb7a287d995%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E24" r:id="rId10"/>
-    <hyperlink ref="E27" r:id="rId11"/>
-    <hyperlink ref="E28" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=41879497637&amp;ns=1&amp;priceTId=2100c80217362694933695281e0c8c&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%226fba754efc7b534c39553219de8fe471%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E29" r:id="rId13" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=576520367466&amp;ns=1&amp;priceTId=2100c88d17362700279437304e0bca&amp;skuId=5233776163079&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%2286e639aba6b85e59df25477f2e06e9be%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E30" r:id="rId14" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=619016855032&amp;ns=1&amp;priceTId=2100c88b17362707183884543e0b95&amp;skuId=5291258526890&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222eda20c95f4e353d9cf3368d4b69c3af%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E31" r:id="rId15" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=619016855032&amp;ns=1&amp;priceTId=2100c88b17362707183884543e0b95&amp;skuId=4914622432769&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222eda20c95f4e353d9cf3368d4b69c3af%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E32" r:id="rId16" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=619016855032&amp;ns=1&amp;priceTId=2100c88b17362707183884543e0b95&amp;skuId=4539994351575&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222eda20c95f4e353d9cf3368d4b69c3af%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E26" r:id="rId17"/>
-    <hyperlink ref="E33" r:id="rId18" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=630210834947&amp;ns=1&amp;priceTId=2100c88a17362624609585429e0bfe&amp;skuId=4654871831212&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22b5b815f054ecf4741c242ea71c7f22a3%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E35" r:id="rId19" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=615181368748&amp;ns=1&amp;priceTId=2100c82017362728155711077e0c51&amp;skuId=5194292062250&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22a3468a5e5a8f7fdc026354baba12ceef%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E34" r:id="rId20" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=615181368748&amp;ns=1&amp;priceTId=2100c82017362728155711077e0c51&amp;skuId=4886121141707&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22a3468a5e5a8f7fdc026354baba12ceef%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E36" r:id="rId21" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=735286048821&amp;ns=1&amp;priceTId=2100c82b17362732531396453e0c13&amp;skuId=5085655129152&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22acd203ffa8b2e0c2a49927114cbdfa6a%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E37" r:id="rId22" display="https://item.taobao.com/item.htm?abbucket=14&amp;id=737526254222&amp;ns=1&amp;pisk=gFWx38V_zz40GT93n-NkjLuVRkqo_OI4oZSIIFYm1aQRfUDg0KVwBNLR7EADhED9BGQNSNIa0hT15NLGi72h0iJwCyvTKJj2PpEf-ZLXf8Z6XH-bqIgAcKoXCy43BbmWgrv1oSbgY4GWYUtXfETb2LtHxf961ns72htiljtf5gZJzhu6fjOXPLt9fA9shEgSFhKHfjT61QOWzh965N9sa7U9PmTiB6pS6gLnSr3IRTKvMFhDJABP2vvkR_8SCyZWmIhccUHsCT1z-98plWok7KYVcnQaLxJX66SMXZexhNIFUaK5RRHHlgShtIWbLfRphEdNhpn_hgpvkB6AzmMARgI1tQBuAJJvhE1M3GmLogBAoiWRjcGWHKfJ9tpQLqTGZMB9XOzaewIFUaK5RRUf4l6hpSVE-eKiGuE-_fRX4s-DpNEbyZ2M2eqYBflwau-J-uE-_fRX43L3DlhZ_QrP.&amp;priceTId=2100c80417362730561112403e09b4&amp;skuId=5261470858494&amp;spm=a21n57.1.item.185.1f21523cDgaLDu&amp;utparam=%7B%22aplus_abtest%22%3A%2212fe17e425dd4975dbcbcf99188db39d%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E38" r:id="rId23" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=565902254473&amp;ns=1&amp;priceTId=2100c81e17362740448754078e0be9&amp;skuId=5150026346779&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22459bf603a49a8d0eb8c2b4830478dfb2%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="E39" r:id="rId24" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=565902254473&amp;ns=1&amp;priceTId=2100c81e17362740448754078e0be9&amp;skuId=5150026346779&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22459bf603a49a8d0eb8c2b4830478dfb2%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="E16" r:id="rId1" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=683034367107&amp;ns=1&amp;priceTId=2100c88b17362582914603827e0b9b&amp;skuId=5059393567466&amp;spm=a21n57.1.hoverItem.18&amp;utparam=%7B%22aplus_abtest%22%3A%22dbef30766743e9bdc0908690cab7e10d%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://detail.tmall.com/item.htm?abbucket=19&amp;id=683328413168&amp;rn=896644150738fdb84b70fe3ad1f2f6a8&amp;spm=a312a.7700824.w4011-24536307509.23.492f4fcbUPCvnq" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E18" r:id="rId3" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=692606109403&amp;ns=1&amp;priceTId=2100c82617362588475892273e0bdb&amp;skuId=4920392277588&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%2235eaa792299d844b1d713e490844695b%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E19" r:id="rId4" display="https://item.taobao.com/item.htm?id=590356028467&amp;spm=a312a.7700824.w4002-17890096034.10.34ae360073nLf5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E20" r:id="rId5" display="https://detail.tmall.com/item.htm?abbucket=19&amp;id=688719980119&amp;rn=eade812c00e43e1a6fe078681dafec5f&amp;spm=a312a.7700824.w4011-24536280695.17.747d1d6cCstSrI" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E21" r:id="rId6" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=561340834902&amp;ns=1&amp;priceTId=2100c82017362598290412075e0c3a&amp;spm=a21n57.1.hoverItem.10&amp;utparam=%7B%22aplus_abtest%22%3A%2237473e2815a2142aca576aafb856b6de%22%7D&amp;xxc=taobaoSearch&amp;skuId=3681678599166" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E22" r:id="rId7" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=669570807944&amp;ns=1&amp;priceTId=2100c82017362601420764632e0c3a&amp;skuId=4816986937763&amp;spm=a21n57.1.hoverItem.8&amp;utparam=%7B%22aplus_abtest%22%3A%22e0d86be345cedc12a9bf1d1670ffddf5%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E23" r:id="rId8" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=748642438763&amp;ns=1&amp;priceTId=2100c82017362603051832136e0c3a&amp;skuId=5330660182434&amp;spm=a21n57.1.hoverItem.15&amp;utparam=%7B%22aplus_abtest%22%3A%2215d36f0d173efbdc83a936c085f0c4b4%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E25" r:id="rId9" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=696738835325&amp;ns=1&amp;priceTId=2100c81917362611679056275e0c0f&amp;skuId=5218038054222&amp;spm=a21n57.1.item.10.3ab2523cgB5l4r&amp;utparam=%7B%22aplus_abtest%22%3A%22823e5f90a423abd75b708fb7a287d995%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E28" r:id="rId12" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=41879497637&amp;ns=1&amp;priceTId=2100c80217362694933695281e0c8c&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%226fba754efc7b534c39553219de8fe471%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E29" r:id="rId13" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=576520367466&amp;ns=1&amp;priceTId=2100c88d17362700279437304e0bca&amp;skuId=5233776163079&amp;spm=a21n57.1.hoverItem.4&amp;utparam=%7B%22aplus_abtest%22%3A%2286e639aba6b85e59df25477f2e06e9be%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E30" r:id="rId14" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=619016855032&amp;ns=1&amp;priceTId=2100c88b17362707183884543e0b95&amp;skuId=5291258526890&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222eda20c95f4e353d9cf3368d4b69c3af%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E31" r:id="rId15" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=619016855032&amp;ns=1&amp;priceTId=2100c88b17362707183884543e0b95&amp;skuId=4914622432769&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222eda20c95f4e353d9cf3368d4b69c3af%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E32" r:id="rId16" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=619016855032&amp;ns=1&amp;priceTId=2100c88b17362707183884543e0b95&amp;skuId=4539994351575&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%222eda20c95f4e353d9cf3368d4b69c3af%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E33" r:id="rId18" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=630210834947&amp;ns=1&amp;priceTId=2100c88a17362624609585429e0bfe&amp;skuId=4654871831212&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22b5b815f054ecf4741c242ea71c7f22a3%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E35" r:id="rId19" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=615181368748&amp;ns=1&amp;priceTId=2100c82017362728155711077e0c51&amp;skuId=5194292062250&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22a3468a5e5a8f7fdc026354baba12ceef%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E34" r:id="rId20" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=615181368748&amp;ns=1&amp;priceTId=2100c82017362728155711077e0c51&amp;skuId=4886121141707&amp;spm=a21n57.1.hoverItem.3&amp;utparam=%7B%22aplus_abtest%22%3A%22a3468a5e5a8f7fdc026354baba12ceef%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E36" r:id="rId21" display="https://detail.tmall.com/item.htm?abbucket=16&amp;id=735286048821&amp;ns=1&amp;priceTId=2100c82b17362732531396453e0c13&amp;skuId=5085655129152&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22acd203ffa8b2e0c2a49927114cbdfa6a%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E37" r:id="rId22" display="https://item.taobao.com/item.htm?abbucket=14&amp;id=737526254222&amp;ns=1&amp;pisk=gFWx38V_zz40GT93n-NkjLuVRkqo_OI4oZSIIFYm1aQRfUDg0KVwBNLR7EADhED9BGQNSNIa0hT15NLGi72h0iJwCyvTKJj2PpEf-ZLXf8Z6XH-bqIgAcKoXCy43BbmWgrv1oSbgY4GWYUtXfETb2LtHxf961ns72htiljtf5gZJzhu6fjOXPLt9fA9shEgSFhKHfjT61QOWzh965N9sa7U9PmTiB6pS6gLnSr3IRTKvMFhDJABP2vvkR_8SCyZWmIhccUHsCT1z-98plWok7KYVcnQaLxJX66SMXZexhNIFUaK5RRHHlgShtIWbLfRphEdNhpn_hgpvkB6AzmMARgI1tQBuAJJvhE1M3GmLogBAoiWRjcGWHKfJ9tpQLqTGZMB9XOzaewIFUaK5RRUf4l6hpSVE-eKiGuE-_fRX4s-DpNEbyZ2M2eqYBflwau-J-uE-_fRX43L3DlhZ_QrP.&amp;priceTId=2100c80417362730561112403e09b4&amp;skuId=5261470858494&amp;spm=a21n57.1.item.185.1f21523cDgaLDu&amp;utparam=%7B%22aplus_abtest%22%3A%2212fe17e425dd4975dbcbcf99188db39d%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E38" r:id="rId23" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=565902254473&amp;ns=1&amp;priceTId=2100c81e17362740448754078e0be9&amp;skuId=5150026346779&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22459bf603a49a8d0eb8c2b4830478dfb2%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E39" r:id="rId24" display="https://item.taobao.com/item.htm?abbucket=16&amp;id=565902254473&amp;ns=1&amp;priceTId=2100c81e17362740448754078e0be9&amp;skuId=5150026346779&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%22459bf603a49a8d0eb8c2b4830478dfb2%22%7D&amp;xxc=taobaoSearch" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
